--- a/data/clientes_cable.xlsx
+++ b/data/clientes_cable.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC35D645-3035-1644-9E1F-1C68B1E6BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="3958">
   <si>
     <t>nombre</t>
   </si>
@@ -31,23 +50,458 @@
     <t>domicilio</t>
   </si>
   <si>
-    <t>Juan Pérez</t>
-  </si>
-  <si>
-    <t>C-001</t>
-  </si>
-  <si>
-    <t>Conectado</t>
-  </si>
-  <si>
-    <t>San Martín 452</t>
+    <t>CASINO OFICIALES BASE NAVAL</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA - CASINO SUBOFICIALES</t>
+  </si>
+  <si>
+    <t>OMAR FERNANDEZ</t>
+  </si>
+  <si>
+    <t>IBUS ESTADO MAYOR GENERAL DE LA ARMADA -  BASE NAVAL USHUAIA (IBUS)</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA -</t>
+  </si>
+  <si>
+    <t>FABIAN FIOCCHI (CJE)</t>
+  </si>
+  <si>
+    <t>GAMMA PRODUCCIONES (CJE)</t>
+  </si>
+  <si>
+    <t>LUIS HERMENEGILDO MORENO</t>
+  </si>
+  <si>
+    <t>MARIO LORETO (CJE)</t>
+  </si>
+  <si>
+    <t>JOSE RAUL RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>GUILLERMO ADOLFO GODOY</t>
+  </si>
+  <si>
+    <t>MANUEL HERNAN CARDENAS</t>
+  </si>
+  <si>
+    <t>SUCURSAL USHUAIA SUPERCANAL</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA - CLORINDA BASE NAVAL</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA -BARRANQUERA</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA CONCEPCIÓN DEL URUGUAY</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA- REMOLCADOR TOBA</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA - CASA DE HUESPEDES</t>
+  </si>
+  <si>
+    <t>PABLO FACUNDO SARTORI</t>
+  </si>
+  <si>
+    <t>SONIA PATRICIA VALLEJO</t>
+  </si>
+  <si>
+    <t>JUAN DOMINGO MORENO</t>
+  </si>
+  <si>
+    <t>ESTADO MAYOR GENERAL DE LA ARMADA-SECRETARIA ALMIRANTE BASE NAVAL</t>
+  </si>
+  <si>
+    <t>DE BOMBEROS P N A CUARTEL</t>
+  </si>
+  <si>
+    <t>CASINO DE OFICIALES POLICIA</t>
+  </si>
+  <si>
+    <t>LUCIA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>ANGEL SANTANA</t>
+  </si>
+  <si>
+    <t>LANCHA RÁPIDA INDÓMITA BASE NAVAL USH</t>
+  </si>
+  <si>
+    <t>CASA HUESPED ARMADA ARGENTINA</t>
+  </si>
+  <si>
+    <t>JEFE ESTADO MAYOR - LUIS SGRILLETTI ARMADA ARGENTINA</t>
+  </si>
+  <si>
+    <t>MUNICIPALIDAD DE USHUAIA</t>
+  </si>
+  <si>
+    <t>SUPERCANAL S.A PLANTA TRANSMISORA</t>
+  </si>
+  <si>
+    <t>AVISO A.R.A. ISLAS MALVINAS</t>
+  </si>
+  <si>
+    <t>JAVIER ANDRES MORENO</t>
+  </si>
+  <si>
+    <t>CRISTIAN MARCELO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAURO FEIRRER</t>
+  </si>
+  <si>
+    <t>LILIANE MARLENE VASQUEZ FIGUEROA</t>
+  </si>
+  <si>
+    <t>MATIAS SEBASTIAN VASQUEZ FIGUEROA</t>
+  </si>
+  <si>
+    <t>GOMEZ LUIS</t>
+  </si>
+  <si>
+    <t>DIEGO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>FLAVIA VALERIA VILLAGRA</t>
+  </si>
+  <si>
+    <t>LILIAN ESTER GALARZA</t>
+  </si>
+  <si>
+    <t>LOS ÑIRES SA</t>
+  </si>
+  <si>
+    <t>HERNAN MAURICIO ORUE</t>
+  </si>
+  <si>
+    <t>MARIA VICTORIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA LOVRINCEVICH</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS FAZZI</t>
+  </si>
+  <si>
+    <t>MIRTHA WYSS</t>
+  </si>
+  <si>
+    <t>NAHUEL  GONZALO GODOY ORTIZ</t>
+  </si>
+  <si>
+    <t>MICAELA SIOMARA PANTANETTI GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LUCAS ISMAEL FIONNA</t>
+  </si>
+  <si>
+    <t>JUAN PABLO FAZZI</t>
+  </si>
+  <si>
+    <t>ERMITA DE C GOHDE GONZALEZ</t>
+  </si>
+  <si>
+    <t>MIRTA AMELIA SUAREZ</t>
+  </si>
+  <si>
+    <t>FELIPE TORRES</t>
+  </si>
+  <si>
+    <t>BOSQUE DEL FALDEO SA CABAÑA BOSQUE DEL FALDEO</t>
+  </si>
+  <si>
+    <t>SANATORIO SAN JORGE S R L</t>
+  </si>
+  <si>
+    <t>. ALBATROS SA  (HOTEL LAS LENGAS)</t>
+  </si>
+  <si>
+    <t>PODER LEGISLATIVO DE LA PROVINCIA DE TIERRA DEL FUEGO</t>
+  </si>
+  <si>
+    <t>ARAKUR SA HOTEL ARAKUR</t>
+  </si>
+  <si>
+    <t>CONECTADO</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>U043191</t>
+  </si>
+  <si>
+    <t>U003739</t>
+  </si>
+  <si>
+    <t>U050379</t>
+  </si>
+  <si>
+    <t>U002433</t>
+  </si>
+  <si>
+    <t>U046109</t>
+  </si>
+  <si>
+    <t>U043790</t>
+  </si>
+  <si>
+    <t>U049525</t>
+  </si>
+  <si>
+    <t>U031652</t>
+  </si>
+  <si>
+    <t>U030176</t>
+  </si>
+  <si>
+    <t>U000857</t>
+  </si>
+  <si>
+    <t>U010136</t>
+  </si>
+  <si>
+    <t>U051086</t>
+  </si>
+  <si>
+    <t>U041852</t>
+  </si>
+  <si>
+    <t>U010596</t>
+  </si>
+  <si>
+    <t>U002040</t>
+  </si>
+  <si>
+    <t>UU049947</t>
+  </si>
+  <si>
+    <t>U042139</t>
+  </si>
+  <si>
+    <t>U042517</t>
+  </si>
+  <si>
+    <t>U045184</t>
+  </si>
+  <si>
+    <t>U046623</t>
+  </si>
+  <si>
+    <t>U046691</t>
+  </si>
+  <si>
+    <t>U049724</t>
+  </si>
+  <si>
+    <t>U047101</t>
+  </si>
+  <si>
+    <t>U54660</t>
+  </si>
+  <si>
+    <t>U54868</t>
+  </si>
+  <si>
+    <t>U047998</t>
+  </si>
+  <si>
+    <t>U047193</t>
+  </si>
+  <si>
+    <t>U047707</t>
+  </si>
+  <si>
+    <t>U050188</t>
+  </si>
+  <si>
+    <t>U051004</t>
+  </si>
+  <si>
+    <t>U005637</t>
+  </si>
+  <si>
+    <t>U051229</t>
+  </si>
+  <si>
+    <t>U008233</t>
+  </si>
+  <si>
+    <t>U050282</t>
+  </si>
+  <si>
+    <t>U052517</t>
+  </si>
+  <si>
+    <t>U006410</t>
+  </si>
+  <si>
+    <t>YAGANES 51</t>
+  </si>
+  <si>
+    <t>YAGANES 9</t>
+  </si>
+  <si>
+    <t>JUAN RUIZ GALAN 689</t>
+  </si>
+  <si>
+    <t>YAGANES 1</t>
+  </si>
+  <si>
+    <t>B* LA MISION BAJA 104</t>
+  </si>
+  <si>
+    <t>DEL BOSQUE 517</t>
+  </si>
+  <si>
+    <t>PUERTO ESPAÑOL 625</t>
+  </si>
+  <si>
+    <t>LEUM 2040</t>
+  </si>
+  <si>
+    <t>PASAJE LAS HERAS 2</t>
+  </si>
+  <si>
+    <t>GERMAN O WILDER 1892</t>
+  </si>
+  <si>
+    <t>CHUBUT 1832</t>
+  </si>
+  <si>
+    <t>INTENDENTE MARCOS VERA 827</t>
+  </si>
+  <si>
+    <t>KAYEN 145</t>
+  </si>
+  <si>
+    <t>YAGANES 7</t>
+  </si>
+  <si>
+    <t>YAGANES 100</t>
+  </si>
+  <si>
+    <t>B* LA MISION BAJA 103</t>
+  </si>
+  <si>
+    <t>TUCUMAN 4985</t>
+  </si>
+  <si>
+    <t>RIO EWAN 2985</t>
+  </si>
+  <si>
+    <t>AVDA LEANDRO N ALEM 2133</t>
+  </si>
+  <si>
+    <t>YAGANES 54</t>
+  </si>
+  <si>
+    <t>AVDA MAIPU 500</t>
+  </si>
+  <si>
+    <t>GOBERNADOR DELOQUI 492</t>
+  </si>
+  <si>
+    <t>JOSE O RETAMAR 1376</t>
+  </si>
+  <si>
+    <t>GENDARME ARGENTINO 1075</t>
+  </si>
+  <si>
+    <t>B* LA MISION BAJA 105</t>
+  </si>
+  <si>
+    <t>B* LA MISION BAJA 101</t>
+  </si>
+  <si>
+    <t>SAN MARTIN 660</t>
+  </si>
+  <si>
+    <t>TTE C CABUT 1</t>
+  </si>
+  <si>
+    <t>TUCUMAN 4975</t>
+  </si>
+  <si>
+    <t>NEUQUEN 351</t>
+  </si>
+  <si>
+    <t>BAHIA RELEGADA 4088</t>
+  </si>
+  <si>
+    <t>GOBERNADOR MONETTA 641</t>
+  </si>
+  <si>
+    <t>LAGUNA ESMERALDA 1121</t>
+  </si>
+  <si>
+    <t>LOS CAUQUENES 950</t>
+  </si>
+  <si>
+    <t>OSCAR SMITH 2930</t>
+  </si>
+  <si>
+    <t>B* 640 VIVIENDAS 2</t>
+  </si>
+  <si>
+    <t>LOS ÑIRES 3040</t>
+  </si>
+  <si>
+    <t>INTENDENTE MARCOS VERA 821</t>
+  </si>
+  <si>
+    <t>HOLL HOLL 1270</t>
+  </si>
+  <si>
+    <t>MONSEÑOR FAGNANO 592</t>
+  </si>
+  <si>
+    <t>B* INTEVU VI 69</t>
+  </si>
+  <si>
+    <t>FORMOSA 482</t>
+  </si>
+  <si>
+    <t>SOLDADO AGUIRRE 2386</t>
+  </si>
+  <si>
+    <t>MAGALLANES 1507</t>
+  </si>
+  <si>
+    <t>RICARDO GUIRALDES 550</t>
+  </si>
+  <si>
+    <t>MONSEÑOR ESCRIVA 1511</t>
+  </si>
+  <si>
+    <t>MONSEÑOR FAGNANO 514</t>
+  </si>
+  <si>
+    <t>BAHIA PARAISO 585</t>
+  </si>
+  <si>
+    <t>ONACHAGA 184</t>
+  </si>
+  <si>
+    <t>GOLETA FLORENCIA 1722</t>
+  </si>
+  <si>
+    <t>SAN MARTIN 1431</t>
+  </si>
+  <si>
+    <t>HEROES DE MALVINAS 2617</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +564,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +616,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +650,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +685,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +861,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.66015625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,21 +890,1029 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1001</v>
+        <v>334106</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>334352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4">
+        <v>334598</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5">
+        <v>335104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>335353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>335572</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>335694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>336048</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>336116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>336469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>336994</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>337095</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>337561</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>337614</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>337615</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>337616</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>337618</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>338152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>339264</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>339516</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>340317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>342225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>342356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>342358</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>342750</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>435271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>778106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1868179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1983002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>5140655</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>5214916</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>5264019</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>5275947</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>5326744</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>5371619</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>5383533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>5421492</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>5421970</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>5423785</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>5436306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>5438874</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>5439038</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>5445962</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>5467655</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>5508124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>5525475</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>5558311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>5580513</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>5585337</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>5610959</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>5623922</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>5641858</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>828500</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>5593093</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>5716811</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>336134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>337558</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>341803</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>855103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>1969498</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1048576">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
